--- a/data for prototype report.xlsx
+++ b/data for prototype report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cycas revoluta\Documents\github\EOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C643B86-85DF-43EB-B052-DF9AE7B1D34E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295990A-B0C2-4D2B-8007-51AC9E9E56A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{8208B623-F204-4574-AA8B-15AB94FFAE55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8208B623-F204-4574-AA8B-15AB94FFAE55}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data raw" sheetId="1" r:id="rId1"/>
+    <sheet name="anova tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>subject 1</t>
   </si>
@@ -70,9 +71,6 @@
   </si>
   <si>
     <t>Sensitivity Testing</t>
-  </si>
-  <si>
-    <t>Longitudinal</t>
   </si>
   <si>
     <t>s1</t>
@@ -115,6 +113,48 @@
   </si>
   <si>
     <t>subject 5</t>
+  </si>
+  <si>
+    <t>High Light (2000 Lux)</t>
+  </si>
+  <si>
+    <t>Low Light (0 Lux)</t>
+  </si>
+  <si>
+    <t>Sensitivity (No Conditions) Retest</t>
+  </si>
+  <si>
+    <t>Two Tailed ANOVA Table</t>
+  </si>
+  <si>
+    <t>Null: reaction time of stress condition groups will vary from sensitivity test without conditions</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Averaged Reaction Time (s)</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Longitudinal (2 hours of use)</t>
+  </si>
+  <si>
+    <t>Raw data for matlab plugin</t>
+  </si>
+  <si>
+    <t>no condition</t>
+  </si>
+  <si>
+    <t>longitudinal</t>
+  </si>
+  <si>
+    <t>high light</t>
+  </si>
+  <si>
+    <t>low light</t>
   </si>
 </sst>
 </file>
@@ -269,7 +309,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$10:$G$10</c:f>
+                <c:f>'data raw'!$B$10:$G$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -296,7 +336,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$10:$G$10</c:f>
+                <c:f>'data raw'!$B$10:$G$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -337,7 +377,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>'data raw'!$B$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -363,7 +403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$G$9</c:f>
+              <c:f>'data raw'!$B$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -799,7 +839,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$B$21:$E$21</c:f>
+                <c:f>'data raw'!$B$28:$E$28</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -813,14 +853,14 @@
                     <c:v>0.84852813742385713</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.2445079348883221</c:v>
+                    <c:v>2.8495379742454157</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$21:$E$21</c:f>
+                <c:f>'data raw'!$B$28:$E$28</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
@@ -834,7 +874,7 @@
                     <c:v>0.84852813742385713</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.2445079348883221</c:v>
+                    <c:v>2.8495379742454157</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -855,7 +895,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$E$17</c:f>
+              <c:f>'data raw'!$B$24:$E$24</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -875,7 +915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:f>'data raw'!$B$27:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -889,7 +929,7 @@
                   <c:v>8.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.156666666666668</c:v>
+                  <c:v>11.156666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,6 +1228,2059 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Longitudinal (2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Hours) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensitivity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Verification </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>n = 3; 2 replicates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13766666666666666"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'data raw'!$B$28:$E$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.3435028842544392</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2385490578343799</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.84852813742385713</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8495379742454157</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'data raw'!$B$28:$E$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.3435028842544392</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2385490578343799</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.84852813742385713</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8495379742454157</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data raw'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>averaged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data raw'!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.156666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8B7-4E34-BFE5-B53910CC63C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1068049439"/>
+        <c:axId val="1068058175"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1068049439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068058175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1068058175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reaction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068049439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>High Light (2000 Lux) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensitivity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Verification </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>n = 3; 2 replicates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13766666666666666"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'data raw'!$B$35:$E$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.7536248173426385</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0576807332528526</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2657211383239166</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5458960439630447</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'data raw'!$B$35:$E$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.7536248173426385</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0576807332528526</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2657211383239166</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5458960439630447</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data raw'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>averaged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data raw'!$B$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1433333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6B2-42FE-9BBB-B188FEA3E6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1068049439"/>
+        <c:axId val="1068058175"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1068049439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068058175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1068058175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reaction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068049439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Low Light (0 Lux) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensitivity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Verification </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>n = 3; 2 replicates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13766666666666666"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'data raw'!$B$43:$E$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.3263813101037401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8920667350529827</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2061731573020289</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4636743495888926</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'data raw'!$B$43:$E$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.3263813101037401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8920667350529827</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.2061731573020289</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4636743495888926</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data raw'!$B$24:$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>averaged</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data raw'!$B$42:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.189999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-212E-491B-B540-A9A647969795}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1068049439"/>
+        <c:axId val="1068058175"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1068049439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068058175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1068058175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reaction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068049439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The Effect of Assorted Stress</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Condition on Distress Reaction Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N = 3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 2 replicates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1266596675415573"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'anova tables'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Averaged Reaction Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'anova tables'!$C$5:$C$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.6648408332706652</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8495379742454157</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5458960439630447</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4636743495888926</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'anova tables'!$C$5:$C$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.6648408332706652</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.8495379742454157</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5458960439630447</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4636743495888926</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'anova tables'!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity (No Conditions) Retest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Longitudinal (2 hours of use)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High Light (2000 Lux)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Low Light (0 Lux)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'anova tables'!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.6716666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.156666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1433333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.189999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BD9-4913-A822-3E31EC0C2225}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1742085759"/>
+        <c:axId val="1742075359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1742085759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conditions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742075359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1742075359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742085759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1268,6 +3361,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1772,6 +4025,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2314,16 +6579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2345,6 +6610,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C40EA2B-ABFA-40A1-9CCD-DE07FDA904D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A5B275-93D9-40DE-8064-D750A917E7B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8180B2-81B4-4B45-9D91-D197487615C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1214437</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FF0916-0C7D-49AF-87C1-D80789EC0286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2650,13 +7070,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223F70AB-3DFE-4645-A0FE-D873A697FB0C}">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="B40:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2677,10 +7101,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2862,37 +7286,40 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
         <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
         <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
         <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2906,13 +7333,13 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
         <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2920,17 +7347,13 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>12.3</v>
+        <v>9.83</v>
       </c>
       <c r="C18">
-        <v>9.7200000000000006</v>
+        <v>6.18</v>
       </c>
       <c r="D18">
-        <v>8.81</v>
-      </c>
-      <c r="E18">
-        <f>AVERAGE(A18:D18)</f>
-        <v>10.276666666666669</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,63 +7361,517 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>14.2</v>
+        <v>12.31</v>
       </c>
       <c r="C19">
-        <v>14.3</v>
+        <v>7.69</v>
       </c>
       <c r="D19">
-        <v>7.61</v>
-      </c>
-      <c r="E19">
-        <f>AVERAGE(A19:D19)</f>
-        <v>12.036666666666667</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <f>AVERAGE(B18:B19)</f>
-        <v>13.25</v>
+        <v>11.07</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:E20" si="2">AVERAGE(C18:C19)</f>
-        <v>12.010000000000002</v>
+        <v>6.9350000000000005</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>8.2100000000000009</v>
+        <v>11.01</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>11.156666666666668</v>
+        <f>AVERAGE(B18:D19)</f>
+        <v>9.6716666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <f>STDEV(B18:B19)</f>
-        <v>1.3435028842544392</v>
+        <v>1.7536248173426365</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:E21" si="3">STDEV(C18:C19)</f>
-        <v>3.2385490578343799</v>
+        <v>1.0677312395916811</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
+        <v>2.9698484809834986</v>
+      </c>
+      <c r="E21">
+        <f>STDEV(B18:D19)</f>
+        <v>2.6648408332706652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>12.3</v>
+      </c>
+      <c r="C25">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="D25">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>14.2</v>
+      </c>
+      <c r="C26">
+        <v>14.3</v>
+      </c>
+      <c r="D26">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B25:B26)</f>
+        <v>13.25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:E27" si="4">AVERAGE(C25:C26)</f>
+        <v>12.010000000000002</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(B25:D26)</f>
+        <v>11.156666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <f>STDEV(B25:B26)</f>
+        <v>1.3435028842544392</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:E28" si="5">STDEV(C25:C26)</f>
+        <v>3.2385490578343799</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
         <v>0.84852813742385713</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>1.2445079348883221</v>
+      <c r="E28">
+        <f>STDEV(B25:D26)</f>
+        <v>2.8495379742454157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>3.13</v>
+      </c>
+      <c r="C32">
+        <v>10.31</v>
+      </c>
+      <c r="D32">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>5.61</v>
+      </c>
+      <c r="C33">
+        <v>7.4</v>
+      </c>
+      <c r="D33">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(B32:B33)</f>
+        <v>4.37</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:D34" si="6">AVERAGE(C32:C33)</f>
+        <v>8.8550000000000004</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>8.2050000000000001</v>
+      </c>
+      <c r="E34">
+        <f>AVERAGE(B32:D33)</f>
+        <v>7.1433333333333335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <f>STDEV(B32:B33)</f>
+        <v>1.7536248173426385</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:D35" si="7">STDEV(C32:C33)</f>
+        <v>2.0576807332528526</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>1.2657211383239166</v>
+      </c>
+      <c r="E35">
+        <f>STDEV(B32:D33)</f>
+        <v>2.5458960439630447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>7.83</v>
+      </c>
+      <c r="C40">
+        <v>9.31</v>
+      </c>
+      <c r="D40">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>11.12</v>
+      </c>
+      <c r="C41">
+        <v>13.4</v>
+      </c>
+      <c r="D41">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <f>AVERAGE(B40:B41)</f>
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:D42" si="8">AVERAGE(C40:C41)</f>
+        <v>11.355</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>15.74</v>
+      </c>
+      <c r="E42">
+        <f>AVERAGE(B40:D41)</f>
+        <v>12.189999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <f>STDEV(B40:B41)</f>
+        <v>2.3263813101037401</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:D43" si="9">STDEV(C40:C41)</f>
+        <v>2.8920667350529827</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="9"/>
+        <v>2.2061731573020289</v>
+      </c>
+      <c r="E43">
+        <f>STDEV(B40:D41)</f>
+        <v>3.4636743495888926</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF2CFB8-834B-4F8B-A2AF-26FE26454213}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>'data raw'!B16</f>
+        <v>Sensitivity (No Conditions) Retest</v>
+      </c>
+      <c r="B5">
+        <f>'data raw'!E20</f>
+        <v>9.6716666666666669</v>
+      </c>
+      <c r="C5">
+        <f>'data raw'!E21</f>
+        <v>2.6648408332706652</v>
+      </c>
+      <c r="K5">
+        <v>9.83</v>
+      </c>
+      <c r="L5">
+        <v>12.3</v>
+      </c>
+      <c r="M5">
+        <v>3.13</v>
+      </c>
+      <c r="N5">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>'data raw'!B23</f>
+        <v>Longitudinal (2 hours of use)</v>
+      </c>
+      <c r="B6">
+        <f>'data raw'!E27</f>
+        <v>11.156666666666666</v>
+      </c>
+      <c r="C6">
+        <f>'data raw'!E28</f>
+        <v>2.8495379742454157</v>
+      </c>
+      <c r="K6">
+        <v>12.31</v>
+      </c>
+      <c r="L6">
+        <v>14.2</v>
+      </c>
+      <c r="M6">
+        <v>5.61</v>
+      </c>
+      <c r="N6">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>'data raw'!B30</f>
+        <v>High Light (2000 Lux)</v>
+      </c>
+      <c r="B7">
+        <f>'data raw'!E34</f>
+        <v>7.1433333333333335</v>
+      </c>
+      <c r="C7">
+        <f>'data raw'!E35</f>
+        <v>2.5458960439630447</v>
+      </c>
+      <c r="K7">
+        <v>6.18</v>
+      </c>
+      <c r="L7">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="M7">
+        <v>10.31</v>
+      </c>
+      <c r="N7">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>'data raw'!B38</f>
+        <v>Low Light (0 Lux)</v>
+      </c>
+      <c r="B8">
+        <f>'data raw'!E42</f>
+        <v>12.189999999999998</v>
+      </c>
+      <c r="C8">
+        <f>'data raw'!E43</f>
+        <v>3.4636743495888926</v>
+      </c>
+      <c r="K8">
+        <v>7.69</v>
+      </c>
+      <c r="L8">
+        <v>14.3</v>
+      </c>
+      <c r="M8">
+        <v>7.4</v>
+      </c>
+      <c r="N8">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>13.11</v>
+      </c>
+      <c r="L9">
+        <v>8.81</v>
+      </c>
+      <c r="M9">
+        <v>7.31</v>
+      </c>
+      <c r="N9">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>8.91</v>
+      </c>
+      <c r="L10">
+        <v>7.61</v>
+      </c>
+      <c r="M10">
+        <v>9.1</v>
+      </c>
+      <c r="N10">
+        <v>14.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>